--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42/metrics/Trial_414__Reeval_Sobol_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42/metrics/Trial_414__Reeval_Sobol_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -6061,7 +6061,7 @@
                   <c:v>361.7572937011719</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>353.2261047363281</c:v>
+                  <c:v>353.22607421875</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>359.4899597167969</c:v>
@@ -6079,7 +6079,7 @@
                   <c:v>361.9948120117188</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>336.0440368652344</c:v>
+                  <c:v>336.0440673828125</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>356.6332702636719</c:v>
@@ -6127,7 +6127,7 @@
                   <c:v>349.3115539550781</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>335.5267639160156</c:v>
+                  <c:v>335.5267944335938</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>351.116943359375</c:v>
@@ -6136,7 +6136,7 @@
                   <c:v>346.0499877929688</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>355.1600341796875</c:v>
+                  <c:v>355.1600646972656</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>340.9551696777344</c:v>
@@ -6187,7 +6187,7 @@
                   <c:v>357.0967712402344</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>349.3770446777344</c:v>
+                  <c:v>349.3770751953125</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>361.6694030761719</c:v>
@@ -6196,7 +6196,7 @@
                   <c:v>341.205810546875</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>349.352294921875</c:v>
+                  <c:v>349.3523254394531</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>350.5960388183594</c:v>
@@ -6295,7 +6295,7 @@
                   <c:v>355.81689453125</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>350.8511047363281</c:v>
+                  <c:v>350.85107421875</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>341.2348327636719</c:v>
@@ -6304,7 +6304,7 @@
                   <c:v>363.0721130371094</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>340.191650390625</c:v>
+                  <c:v>340.1916809082031</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>344.5250549316406</c:v>
@@ -6337,7 +6337,7 @@
                   <c:v>355.1415405273438</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>342.3772888183594</c:v>
+                  <c:v>342.3772583007812</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>353.7939147949219</c:v>
@@ -6355,7 +6355,7 @@
                   <c:v>354.4520263671875</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>357.4384460449219</c:v>
+                  <c:v>357.4384155273438</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>356.7581787109375</c:v>
@@ -6389,7 +6389,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6404,7 +6404,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6433,7 +6433,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6448,7 +6448,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6477,7 +6477,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6492,7 +6492,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -7004,13 +7004,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H810"/>
+  <dimension ref="A1:S810"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7035,8 +7035,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>362.4</v>
       </c>
@@ -7061,8 +7067,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>359.544</v>
       </c>
@@ -7079,16 +7091,22 @@
         <v>359.116</v>
       </c>
       <c r="F3">
-        <v>353.2261047363281</v>
+        <v>353.22607421875</v>
       </c>
       <c r="G3">
+        <v>374</v>
+      </c>
+      <c r="H3">
+        <v>374</v>
+      </c>
+      <c r="R3">
         <v>372</v>
       </c>
-      <c r="H3">
+      <c r="S3">
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>358.201</v>
       </c>
@@ -7108,13 +7126,19 @@
         <v>359.4899597167969</v>
       </c>
       <c r="G4">
+        <v>374</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>372</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>355.336</v>
       </c>
@@ -7134,13 +7158,19 @@
         <v>358.304443359375</v>
       </c>
       <c r="G5">
+        <v>374</v>
+      </c>
+      <c r="H5">
+        <v>374</v>
+      </c>
+      <c r="R5">
         <v>372</v>
       </c>
-      <c r="H5">
+      <c r="S5">
         <v>372</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>355.427</v>
       </c>
@@ -7160,13 +7190,19 @@
         <v>351.1525573730469</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>374</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>372</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>360.582</v>
       </c>
@@ -7186,13 +7222,19 @@
         <v>346.6299743652344</v>
       </c>
       <c r="G7">
+        <v>374</v>
+      </c>
+      <c r="H7">
+        <v>374</v>
+      </c>
+      <c r="R7">
         <v>372</v>
       </c>
-      <c r="H7">
+      <c r="S7">
         <v>372</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>357.585</v>
       </c>
@@ -7212,7 +7254,7 @@
         <v>361.9948120117188</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>338.571</v>
       </c>
@@ -7229,10 +7271,10 @@
         <v>363.322</v>
       </c>
       <c r="F9">
-        <v>336.0440368652344</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>336.0440673828125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>355.528</v>
       </c>
@@ -7252,7 +7294,7 @@
         <v>356.6332702636719</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>362.336</v>
       </c>
@@ -7272,7 +7314,7 @@
         <v>344.6632690429688</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>356.563</v>
       </c>
@@ -7292,7 +7334,7 @@
         <v>348.6467590332031</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>330.878</v>
       </c>
@@ -7312,7 +7354,7 @@
         <v>353.6743469238281</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>340.384</v>
       </c>
@@ -7332,7 +7374,7 @@
         <v>351.5633544921875</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>359.105</v>
       </c>
@@ -7352,7 +7394,7 @@
         <v>371.8673095703125</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>358</v>
       </c>
@@ -7549,7 +7591,7 @@
         <v>356.912</v>
       </c>
       <c r="F25">
-        <v>335.5267639160156</v>
+        <v>335.5267944335938</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7609,7 +7651,7 @@
         <v>356.103</v>
       </c>
       <c r="F28">
-        <v>355.1600341796875</v>
+        <v>355.1600646972656</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7949,7 +7991,7 @@
         <v>356.38</v>
       </c>
       <c r="F45">
-        <v>349.3770446777344</v>
+        <v>349.3770751953125</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8009,7 +8051,7 @@
         <v>342.805</v>
       </c>
       <c r="F48">
-        <v>349.352294921875</v>
+        <v>349.3523254394531</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8669,7 +8711,7 @@
         <v>355.907</v>
       </c>
       <c r="F81">
-        <v>350.8511047363281</v>
+        <v>350.85107421875</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8729,7 +8771,7 @@
         <v>341.524</v>
       </c>
       <c r="F84">
-        <v>340.191650390625</v>
+        <v>340.1916809082031</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8949,7 +8991,7 @@
         <v>357.722</v>
       </c>
       <c r="F95">
-        <v>342.3772888183594</v>
+        <v>342.3772583007812</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9069,7 +9111,7 @@
         <v>339.444</v>
       </c>
       <c r="F101">
-        <v>357.4384460449219</v>
+        <v>357.4384155273438</v>
       </c>
     </row>
     <row r="102" spans="1:6">
